--- a/prj_Apter_DownloadArquivos/resources/Data/Relatorio_Analitico_prj_Apter_DownloadArquivos.xlsx
+++ b/prj_Apter_DownloadArquivos/resources/Data/Relatorio_Analitico_prj_Apter_DownloadArquivos.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G546"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -18779,7 +18779,37 @@
           <t>SUCESSO</t>
         </is>
       </c>
-      <c r="G546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>05/02/2024 10:40:33</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>05/02/2024 11:00:22</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>306</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>05022024104032</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
